--- a/documents/specifications/pages/マスタ系画面作成.xlsx
+++ b/documents/specifications/pages/マスタ系画面作成.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\Documents\Projects\optimizer\enepascm-next\documents\specifications\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2B2923-B954-4A87-991F-0A53629A7F36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321338FA-698E-4D70-BEE9-86A1EF33BAAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31DFC008-D00C-4360-A184-8347022D5D2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31DFC008-D00C-4360-A184-8347022D5D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -364,70 +364,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>/master/balancing_groups</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/bg_members</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/companies</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/consumers</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/msater/contracts</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/contract_items</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/contract_item_groups</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/contract_meter_rates</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/discount_for_facilities</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/districts</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/facilities</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/facility_groups</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/fuel_cost_adjustments</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/jbu_contracts</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/jepx/imbalance_betas</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/resources</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APIコントローラURL</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -483,12 +419,6 @@
     <t>/v1/facilities</t>
   </si>
   <si>
-    <t>/v1/jepx_imbalance_betas</t>
-  </si>
-  <si>
-    <t>/v1/jepx_spot_trades</t>
-  </si>
-  <si>
     <t>/v1/resources</t>
   </si>
   <si>
@@ -502,26 +432,6 @@
   </si>
   <si>
     <t>/v1/wheeler_charges</t>
-  </si>
-  <si>
-    <t>/master/time_indices</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/users</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/voltage_types</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/wheeler_charges</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/master/district_loss_rates</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>/v1/dlt/settings</t>
@@ -570,6 +480,98 @@
   </si>
   <si>
     <t>常時バックアップ電源契約</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/balancing_groups</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/bg_members</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/companies</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/consumers</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/contract_items</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/contract_item_groups</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/contract_meter_rates</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/discount_for_facilities</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/districts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/district_loss_rates</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/facilities</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/facility_groups</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/fuel_cost_adjustments</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/jbu_contracts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/resources</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/time_indices</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/users</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/voltage_types</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/wheeler_charges</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/v1/jepx/imbalance_betas</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/v1/jepx/spot_trades</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jepx/imbalance_betas</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/contracts</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1258,26 +1260,26 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.19921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1288,16 +1290,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1309,7 +1311,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1321,7 +1323,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1333,7 +1335,7 @@
       <c r="E5" s="18"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1344,16 +1346,16 @@
         <v>40</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1364,16 +1366,16 @@
         <v>41</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1384,16 +1386,16 @@
         <v>42</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1407,7 +1409,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1418,16 +1420,16 @@
         <v>44</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1438,16 +1440,16 @@
         <v>45</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1458,12 +1460,12 @@
         <v>46</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1474,16 +1476,16 @@
         <v>47</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1494,16 +1496,16 @@
         <v>48</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1519,7 +1521,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1530,16 +1532,16 @@
         <v>50</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -1547,19 +1549,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -1570,16 +1572,16 @@
         <v>51</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1590,16 +1592,16 @@
         <v>52</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -1610,16 +1612,16 @@
         <v>53</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -1633,13 +1635,13 @@
         <v>79</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1653,25 +1655,25 @@
       <c r="E22" s="18"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="10">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1682,16 +1684,16 @@
         <v>57</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1707,7 +1709,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -1718,56 +1720,56 @@
         <v>59</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="10">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="10">
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -1778,16 +1780,16 @@
         <v>60</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -1801,13 +1803,13 @@
         <v>87</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -1823,7 +1825,7 @@
       <c r="E31" s="18"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -1839,7 +1841,7 @@
       <c r="E32" s="18"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -1853,7 +1855,7 @@
       <c r="E33" s="18"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -1867,7 +1869,7 @@
       <c r="E34" s="18"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -1883,7 +1885,7 @@
       <c r="E35" s="18"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -1897,7 +1899,7 @@
       <c r="E36" s="18"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -1911,7 +1913,7 @@
       <c r="E37" s="18"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -1922,16 +1924,16 @@
         <v>69</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -1943,7 +1945,7 @@
       <c r="E39" s="18"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -1957,7 +1959,7 @@
       <c r="E40" s="18"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -1968,16 +1970,16 @@
         <v>72</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -1988,16 +1990,16 @@
         <v>73</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -2008,16 +2010,16 @@
         <v>74</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="13">
         <v>42</v>
       </c>
@@ -2028,10 +2030,10 @@
         <v>75</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>77</v>

--- a/documents/specifications/pages/マスタ系画面作成.xlsx
+++ b/documents/specifications/pages/マスタ系画面作成.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\Documents\Projects\optimizer\enepascm-next\documents\specifications\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321338FA-698E-4D70-BEE9-86A1EF33BAAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B00D1F-864A-4FBF-879B-F7C6D866A7F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31DFC008-D00C-4360-A184-8347022D5D2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31DFC008-D00C-4360-A184-8347022D5D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="149">
   <si>
     <t>No</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>ユーザー</t>
-  </si>
-  <si>
-    <t>電圧区分</t>
   </si>
   <si>
     <t>託送料金</t>
@@ -555,23 +552,51 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>/v1/jepx/imbalance_betas</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/v1/jepx/spot_trades</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jepx/imbalance_betas</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/contracts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電圧種別</t>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>/masters/wheeler_charges</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/v1/jepx/imbalance_betas</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/v1/jepx/spot_trades</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>jepx/imbalance_betas</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/masters/contracts</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>休日</t>
+    <rPh sb="0" eb="2">
+      <t>キュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>holidays</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/masters/holidays</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/v1/holidays</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1258,28 +1283,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.8984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1290,52 +1315,52 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="20"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1343,19 +1368,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1363,19 +1388,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1383,19 +1408,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1403,13 +1428,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="18"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1417,19 +1442,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1437,19 +1462,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1457,15 +1482,15 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1473,19 +1498,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1493,19 +1518,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1513,15 +1538,15 @@
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1529,19 +1554,19 @@
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -1549,19 +1574,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -1569,19 +1594,19 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1589,19 +1614,19 @@
         <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -1609,19 +1634,19 @@
         <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>115</v>
-      </c>
       <c r="F20" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -1629,19 +1654,19 @@
         <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1649,31 +1674,31 @@
         <v>19</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1681,19 +1706,19 @@
         <v>20</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1701,15 +1726,15 @@
         <v>21</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -1717,59 +1742,59 @@
         <v>22</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="10">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="10">
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -1777,39 +1802,39 @@
         <v>23</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="10">
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -1817,15 +1842,15 @@
         <v>24</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -1833,15 +1858,15 @@
         <v>25</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -1849,13 +1874,13 @@
         <v>26</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -1863,13 +1888,13 @@
         <v>27</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -1877,15 +1902,15 @@
         <v>28</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -1893,13 +1918,13 @@
         <v>29</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -1907,13 +1932,13 @@
         <v>30</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -1921,31 +1946,31 @@
         <v>31</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="10">
         <v>37</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -1953,13 +1978,13 @@
         <v>32</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -1967,19 +1992,19 @@
         <v>33</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -1987,56 +2012,76 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="10">
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="10">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="18" t="s">
+      <c r="D44" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="13">
-        <v>42</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>77</v>
+      <c r="F44" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="13">
+        <v>43</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/documents/specifications/pages/マスタ系画面作成.xlsx
+++ b/documents/specifications/pages/マスタ系画面作成.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\Documents\Projects\optimizer\enepascm-next\documents\specifications\pages\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321338FA-698E-4D70-BEE9-86A1EF33BAAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31DFC008-D00C-4360-A184-8347022D5D2F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="145">
   <si>
     <t>No</t>
   </si>
@@ -100,9 +94,6 @@
   </si>
   <si>
     <t>施設グループ</t>
-  </si>
-  <si>
-    <t>JEPXインバランスβ値</t>
   </si>
   <si>
     <t>JEPXスポット市場取引結果エリア別情報</t>
@@ -574,12 +565,20 @@
     <t>/masters/contracts</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>JEPXインバランスβ値</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +621,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -874,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -940,6 +946,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,39 +1256,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF3D24D-CA6A-4E2D-9448-463A53C43EA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.8984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1290,52 +1299,52 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="20"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1343,19 +1352,22 @@
         <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1363,19 +1375,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1383,19 +1398,22 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1403,13 +1421,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="18"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1417,19 +1435,22 @@
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1437,19 +1458,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1457,15 +1478,15 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1473,19 +1494,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1493,19 +1514,19 @@
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1513,15 +1534,15 @@
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1529,19 +1550,19 @@
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -1549,19 +1570,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -1569,19 +1590,19 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1589,19 +1610,19 @@
         <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -1609,19 +1630,19 @@
         <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>115</v>
-      </c>
       <c r="F20" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -1629,19 +1650,19 @@
         <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1649,31 +1670,31 @@
         <v>19</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1681,19 +1702,19 @@
         <v>20</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1701,15 +1722,15 @@
         <v>21</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -1717,332 +1738,332 @@
         <v>22</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="10">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="10">
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="10">
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="10">
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="10">
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="10">
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="10">
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="10">
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="10">
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="10">
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="10">
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="10">
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="10">
         <v>37</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="10">
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="10">
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="10">
         <v>40</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="10">
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="13">
         <v>42</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>

--- a/documents/specifications/pages/マスタ系画面作成.xlsx
+++ b/documents/specifications/pages/マスタ系画面作成.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\Documents\Projects\optimizer\enepascm-next\documents\specifications\pages\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B00D1F-864A-4FBF-879B-F7C6D866A7F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31DFC008-D00C-4360-A184-8347022D5D2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="155">
   <si>
     <t>No</t>
   </si>
@@ -597,14 +591,49 @@
   </si>
   <si>
     <t>/v1/holidays</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト不能</t>
+    <rPh sb="3" eb="5">
+      <t>フノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト不能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正待ち</t>
+  </si>
+  <si>
+    <t>修正待ち</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>indexのみ完了</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +676,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -899,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,6 +1001,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,21 +1311,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF3D24D-CA6A-4E2D-9448-463A53C43EA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1299,12 +1338,12 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1363,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1336,7 +1375,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1348,7 +1387,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1360,7 +1399,7 @@
       <c r="E5" s="18"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1379,8 +1418,11 @@
       <c r="F6" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1399,8 +1441,11 @@
       <c r="F7" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1419,8 +1464,11 @@
       <c r="F8" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1434,7 +1482,7 @@
       <c r="E9" s="18"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1453,8 +1501,11 @@
       <c r="F10" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1473,8 +1524,11 @@
       <c r="F11" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1490,7 +1544,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1509,8 +1563,11 @@
       <c r="F13" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1529,8 +1586,11 @@
       <c r="F14" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1546,7 +1606,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1565,8 +1625,11 @@
       <c r="F16" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -1585,8 +1648,11 @@
       <c r="F17" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -1605,8 +1671,11 @@
       <c r="F18" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -1625,8 +1694,11 @@
       <c r="F19" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -1645,8 +1717,11 @@
       <c r="F20" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -1665,8 +1740,11 @@
       <c r="F21" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1680,7 +1758,7 @@
       <c r="E22" s="18"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -1698,7 +1776,7 @@
       </c>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1718,7 +1796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1734,7 +1812,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="10">
         <v>24</v>
       </c>
@@ -1754,7 +1832,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="10">
         <v>25</v>
       </c>
@@ -1774,7 +1852,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="10">
         <v>26</v>
       </c>
@@ -1794,7 +1872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="10">
         <v>27</v>
       </c>
@@ -1814,7 +1892,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -1834,7 +1912,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -1850,7 +1928,7 @@
       <c r="E31" s="18"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="10">
         <v>30</v>
       </c>

--- a/documents/specifications/pages/マスタ系画面作成.xlsx
+++ b/documents/specifications/pages/マスタ系画面作成.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="163">
   <si>
     <t>No</t>
   </si>
@@ -622,9 +622,104 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>indexのみ完了</t>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
+    <t>belongs_to</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>belongs_to、テスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細-&gt;種別表示不能</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間を名前にするか</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧、検索、ラベル、サインイン回数表示不能</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧と詳細のフィールドが同じ、詳細でユーザーのものが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正待ち</t>
+    <rPh sb="0" eb="3">
+      <t>シュウセイマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧、契約容量、修正待ち</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1311,7 +1406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1324,8 +1419,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1740,8 +1835,8 @@
       <c r="F21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>154</v>
+      <c r="G21" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1775,6 +1870,9 @@
         <v>111</v>
       </c>
       <c r="F23" s="12"/>
+      <c r="G23" s="22" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
@@ -1795,6 +1893,9 @@
       <c r="F24" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="G24" s="22" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
@@ -1831,6 +1932,9 @@
       <c r="F26" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="G26" s="22" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="10">
@@ -1851,6 +1955,9 @@
       <c r="F27" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="G27" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="10">
@@ -1871,6 +1978,9 @@
       <c r="F28" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="G28" s="22" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="10">
@@ -1891,6 +2001,9 @@
       <c r="F29" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="G29" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="10">
@@ -1911,6 +2024,9 @@
       <c r="F30" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="G30" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="10">
@@ -1944,7 +2060,7 @@
       <c r="E32" s="18"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="10">
         <v>31</v>
       </c>
@@ -1958,7 +2074,7 @@
       <c r="E33" s="18"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="10">
         <v>32</v>
       </c>
@@ -1972,7 +2088,7 @@
       <c r="E34" s="18"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -1988,7 +2104,7 @@
       <c r="E35" s="18"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="10">
         <v>34</v>
       </c>
@@ -2002,7 +2118,7 @@
       <c r="E36" s="18"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="10">
         <v>35</v>
       </c>
@@ -2016,7 +2132,7 @@
       <c r="E37" s="18"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="10">
         <v>36</v>
       </c>
@@ -2035,8 +2151,11 @@
       <c r="F38" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G38" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="10">
         <v>37</v>
       </c>
@@ -2048,7 +2167,7 @@
       <c r="E39" s="18"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="10">
         <v>38</v>
       </c>
@@ -2062,7 +2181,7 @@
       <c r="E40" s="18"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="10">
         <v>39</v>
       </c>
@@ -2081,8 +2200,11 @@
       <c r="F41" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G41" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -2101,8 +2223,11 @@
       <c r="F42" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G42" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -2121,8 +2246,11 @@
       <c r="F43" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G43" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="10">
         <v>42</v>
       </c>
@@ -2141,8 +2269,11 @@
       <c r="F44" s="12" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G44" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="13">
         <v>43</v>
       </c>
@@ -2160,6 +2291,9 @@
       </c>
       <c r="F45" s="15" t="s">
         <v>76</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/documents/specifications/pages/マスタ系画面作成.xlsx
+++ b/documents/specifications/pages/マスタ系画面作成.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
   <si>
     <t>No</t>
   </si>
@@ -622,15 +622,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>belongs_to</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>テスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>belongs_to、テスト</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -650,16 +642,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>時間を名前にするか</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>一覧、検索、ラベル、サインイン回数表示不能</t>
     <rPh sb="0" eb="2">
       <t>イチラン</t>
@@ -721,6 +703,17 @@
     <rPh sb="10" eb="11">
       <t>マ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1406,7 +1399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1420,7 +1413,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1894,7 +1887,7 @@
         <v>76</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1955,8 +1948,8 @@
       <c r="F27" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>154</v>
+      <c r="G27" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -2002,7 +1995,7 @@
         <v>76</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -2025,7 +2018,7 @@
         <v>76</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -2152,7 +2145,7 @@
         <v>76</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2201,7 +2194,7 @@
         <v>76</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2224,7 +2217,7 @@
         <v>76</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2247,7 +2240,7 @@
         <v>76</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2270,7 +2263,7 @@
         <v>144</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">

--- a/documents/specifications/pages/マスタ系画面作成.xlsx
+++ b/documents/specifications/pages/マスタ系画面作成.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="160">
   <si>
     <t>No</t>
   </si>
@@ -626,60 +626,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>詳細-&gt;種別表示不能</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュベツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>フノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一覧、検索、ラベル、サインイン回数表示不能</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>フノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一覧と詳細のフィールドが同じ、詳細でユーザーのものが表示される</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>修正待ち</t>
     <rPh sb="0" eb="3">
       <t>シュウセイマ</t>
@@ -687,33 +633,40 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一覧、契約容量、修正待ち</t>
+    <t>テスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧のみ作成</t>
     <rPh sb="0" eb="2">
       <t>イチラン</t>
     </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧のみ、検索</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧、修正待ち</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
     <rPh sb="3" eb="5">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
       <t>シュウセイ</t>
     </rPh>
-    <rPh sb="10" eb="11">
+    <rPh sb="5" eb="6">
       <t>マ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検索</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テスト</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1412,8 +1365,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1862,7 +1815,9 @@
       <c r="E23" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="G23" s="22" t="s">
         <v>150</v>
       </c>
@@ -2018,7 +1973,7 @@
         <v>76</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -2144,8 +2099,8 @@
       <c r="F38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>155</v>
+      <c r="G38" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2194,7 +2149,7 @@
         <v>76</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2216,8 +2171,8 @@
       <c r="F42" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>156</v>
+      <c r="G42" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2263,7 +2218,7 @@
         <v>144</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">

--- a/documents/specifications/pages/マスタ系画面作成.xlsx
+++ b/documents/specifications/pages/マスタ系画面作成.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="155">
   <si>
     <t>No</t>
   </si>
@@ -379,9 +379,6 @@
     <t>/v1/contract_meter_rates</t>
   </si>
   <si>
-    <t>/v1/discount_for_facilities</t>
-  </si>
-  <si>
     <t>/v1/district_loss_rates</t>
   </si>
   <si>
@@ -598,43 +595,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テスト不能</t>
-    <rPh sb="3" eb="5">
-      <t>フノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テスト不能</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>修正待ち</t>
-  </si>
-  <si>
-    <t>修正待ち</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>修正待ち</t>
-    <rPh sb="0" eb="3">
-      <t>シュウセイマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テスト</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>一覧のみ作成</t>
@@ -647,25 +608,30 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一覧のみ、検索</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一覧、修正待ち</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マ</t>
+    <t>/v1/discounts_for_facilities</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データが空のためテスト不能</t>
+    <rPh sb="4" eb="5">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データが空のためテスト不能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>親のデータが空のためテスト不能</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1352,7 +1318,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1365,8 +1331,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1451,7 +1417,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>90</v>
@@ -1460,7 +1426,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1474,7 +1440,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>91</v>
@@ -1483,7 +1449,7 @@
         <v>76</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1497,16 +1463,16 @@
         <v>41</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1534,16 +1500,16 @@
         <v>43</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1557,16 +1523,16 @@
         <v>44</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1580,7 +1546,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="12"/>
@@ -1596,7 +1562,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>92</v>
@@ -1605,7 +1571,7 @@
         <v>76</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1619,7 +1585,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>93</v>
@@ -1628,7 +1594,7 @@
         <v>76</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1658,7 +1624,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>94</v>
@@ -1667,7 +1633,7 @@
         <v>76</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1678,19 +1644,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1704,16 +1670,16 @@
         <v>50</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1727,16 +1693,16 @@
         <v>51</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1750,16 +1716,16 @@
         <v>52</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="F20" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1776,13 +1742,13 @@
         <v>78</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1804,22 +1770,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1833,16 +1799,16 @@
         <v>56</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1872,16 +1838,16 @@
         <v>58</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1889,22 +1855,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1912,22 +1878,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1941,16 +1907,16 @@
         <v>59</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>154</v>
+      <c r="G29" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -1967,13 +1933,13 @@
         <v>86</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>156</v>
+      <c r="G30" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -2091,16 +2057,16 @@
         <v>68</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2140,16 +2106,16 @@
         <v>71</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2163,16 +2129,16 @@
         <v>72</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2180,22 +2146,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2209,16 +2175,16 @@
         <v>74</v>
       </c>
       <c r="D44" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>155</v>
+      <c r="G44" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2226,22 +2192,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="D45" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="E45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="F45" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/documents/specifications/pages/マスタ系画面作成.xlsx
+++ b/documents/specifications/pages/マスタ系画面作成.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\Documents\Projects\optimizer\enepascm-next\documents\specifications\pages\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53EB92C-8741-43C3-A311-5B32C43AF94B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="345" yWindow="360" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -551,10 +551,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>jepx/imbalance_betas</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/masters/contracts</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -633,13 +629,17 @@
     <rPh sb="13" eb="15">
       <t>フノウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/jepx/imbalance_betas</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1318,21 +1318,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1426,7 +1426,7 @@
         <v>76</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1449,7 +1449,7 @@
         <v>76</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1472,7 +1472,7 @@
         <v>76</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1509,7 +1509,7 @@
         <v>76</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1523,7 +1523,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>101</v>
@@ -1532,7 +1532,7 @@
         <v>76</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1571,7 +1571,7 @@
         <v>76</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1594,7 +1594,7 @@
         <v>76</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1633,7 +1633,7 @@
         <v>76</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1650,13 +1650,13 @@
         <v>126</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>76</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1679,7 +1679,7 @@
         <v>76</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1702,7 +1702,7 @@
         <v>76</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1725,7 +1725,7 @@
         <v>76</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1748,7 +1748,7 @@
         <v>77</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1785,7 +1785,7 @@
         <v>76</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1808,7 +1808,7 @@
         <v>76</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1847,7 +1847,7 @@
         <v>76</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1870,7 +1870,7 @@
         <v>76</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1893,7 +1893,7 @@
         <v>76</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1907,7 +1907,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>137</v>
@@ -1916,7 +1916,7 @@
         <v>76</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -1939,7 +1939,7 @@
         <v>76</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -2066,7 +2066,7 @@
         <v>76</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2115,7 +2115,7 @@
         <v>76</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2138,7 +2138,7 @@
         <v>76</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2146,7 +2146,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>73</v>
@@ -2161,7 +2161,7 @@
         <v>76</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2175,16 +2175,16 @@
         <v>74</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>108</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2192,22 +2192,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="D45" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="E45" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="F45" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/documents/specifications/pages/マスタ系画面作成.xlsx
+++ b/documents/specifications/pages/マスタ系画面作成.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\Documents\Projects\optimizer\enepascm-next\documents\specifications\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53EB92C-8741-43C3-A311-5B32C43AF94B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FABADC0-1739-4CA2-9FA1-C9F1FCD9D78E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="360" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="269">
   <si>
     <t>No</t>
   </si>
@@ -633,6 +634,824 @@
   </si>
   <si>
     <t>/jepx/imbalance_betas</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バランシンググループ一覧画面</t>
+  </si>
+  <si>
+    <t>バランシンググループ詳細画面</t>
+  </si>
+  <si>
+    <t>BGメンバー一覧画面</t>
+  </si>
+  <si>
+    <t>BGメンバー詳細画面</t>
+  </si>
+  <si>
+    <t>会社(PPS)一覧画面</t>
+  </si>
+  <si>
+    <t>会社(PPS)詳細画面</t>
+  </si>
+  <si>
+    <t>需要家一覧画面</t>
+  </si>
+  <si>
+    <t>需要家詳細画面</t>
+  </si>
+  <si>
+    <t>契約一覧画面</t>
+  </si>
+  <si>
+    <t>契約詳細画面</t>
+  </si>
+  <si>
+    <t>契約基本料金一覧画面</t>
+  </si>
+  <si>
+    <t>契約基本料金詳細画面</t>
+  </si>
+  <si>
+    <t>契約アイテム一覧画面</t>
+  </si>
+  <si>
+    <t>契約アイテム詳細画面</t>
+  </si>
+  <si>
+    <t>契約アイテムグループ一覧画面</t>
+  </si>
+  <si>
+    <t>契約アイテムグループ詳細画面</t>
+  </si>
+  <si>
+    <t>契約・契約アイテム別従量料金一覧画面</t>
+  </si>
+  <si>
+    <t>契約・契約アイテム別従量料金詳細画面</t>
+  </si>
+  <si>
+    <t>施設別割引一覧画面</t>
+  </si>
+  <si>
+    <t>施設別割引詳細画面</t>
+  </si>
+  <si>
+    <t>供給エリア一覧画面</t>
+  </si>
+  <si>
+    <t>供給エリア詳細画面</t>
+  </si>
+  <si>
+    <t>エリア別損失率一覧画面</t>
+  </si>
+  <si>
+    <t>エリア別損失率詳細画面</t>
+  </si>
+  <si>
+    <t>ダウンロード設定一覧画面</t>
+  </si>
+  <si>
+    <t>ダウンロード設定詳細画面</t>
+  </si>
+  <si>
+    <t>施設一覧画面</t>
+  </si>
+  <si>
+    <t>施設詳細画面</t>
+  </si>
+  <si>
+    <t>施設グループ一覧画面</t>
+  </si>
+  <si>
+    <t>施設グループ詳細画面</t>
+  </si>
+  <si>
+    <t>燃料調整費一覧画面</t>
+  </si>
+  <si>
+    <t>燃料調整費詳細画面</t>
+  </si>
+  <si>
+    <t>常時バックアップ電源契約一覧画面</t>
+  </si>
+  <si>
+    <t>常時バックアップ電源契約詳細画面</t>
+  </si>
+  <si>
+    <t>JEPXインバランスβ値一覧画面</t>
+  </si>
+  <si>
+    <t>JEPXインバランスβ値詳細画面</t>
+  </si>
+  <si>
+    <t>JEPXスポット市場取引結果一覧画面</t>
+  </si>
+  <si>
+    <t>JEPXスポット市場取引結果詳細画面</t>
+  </si>
+  <si>
+    <t>リソース一覧画面</t>
+  </si>
+  <si>
+    <t>リソース詳細画面</t>
+  </si>
+  <si>
+    <t>時間枠一覧画面</t>
+  </si>
+  <si>
+    <t>ユーザー一覧画面</t>
+  </si>
+  <si>
+    <t>ユーザー詳細画面</t>
+  </si>
+  <si>
+    <t>電圧種別一覧画面</t>
+  </si>
+  <si>
+    <t>託送料金一覧画面</t>
+  </si>
+  <si>
+    <t>託送料金詳細画面</t>
+  </si>
+  <si>
+    <t>休日一覧画面</t>
+  </si>
+  <si>
+    <t>休日詳細画面</t>
+  </si>
+  <si>
+    <t>JEPXインバランスβ値取込</t>
+  </si>
+  <si>
+    <t>JEPXスポット市場取引結果取込</t>
+  </si>
+  <si>
+    <t>託送DLT30分データダウンロード</t>
+  </si>
+  <si>
+    <t>託送DLT速報値当日データ取込</t>
+  </si>
+  <si>
+    <t>託送DLT速報値過去データ取込</t>
+  </si>
+  <si>
+    <t>託送DLT確定使用量データ取込</t>
+  </si>
+  <si>
+    <t>託送DLT確定値データ集計</t>
+  </si>
+  <si>
+    <t>バッチ処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通機能</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限管理(画面側)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限管理(API側)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面(マスタ系)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面(トランザクション系)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同時同量監視</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益管理(月別)</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツキベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益管理(需要家別)</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュヨウカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益管理(需要家別時間別)</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュヨウカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益管理(月別)Excelデータダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツキベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益管理(需要家別)Excelデータダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュヨウカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益管理(需要家別時間別)Excelデータダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュヨウカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益管理(月別)CSVデータダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツキベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益管理(需要家別)CSVデータダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュヨウカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益管理(需要家別時間別)CSVデータダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジュヨウカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSV/Excelダウンロード共通機能の作成</t>
+    <rPh sb="15" eb="17">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスタ系一覧画面共通機能</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスタ系詳細画面共通機能</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>旧システムデータ連携</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面デザインの整理</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セッション管理に問題あり。</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検証用に仮作成</t>
+    <rPh sb="0" eb="2">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検証用に仮作成</t>
+    <rPh sb="0" eb="3">
+      <t>ケンショウヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PG・PT進捗</t>
+    <rPh sb="5" eb="7">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PG名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益計算データ作成</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダウンロードファイル一覧画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不整合供給地点一覧画面</t>
+    <rPh sb="0" eb="3">
+      <t>フセイゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検証作業</t>
+    <rPh sb="0" eb="2">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>速報値</t>
+    <rPh sb="0" eb="3">
+      <t>ソクホウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定値</t>
+    <rPh sb="0" eb="3">
+      <t>カクテイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポジションデータ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益計算</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　売上</t>
+    <rPh sb="1" eb="3">
+      <t>ウリアゲ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　仕入</t>
+    <rPh sb="1" eb="3">
+      <t>シイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>翌日需要調達計画一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヨクジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウタツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　AWS機能検証</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチパフォーマンス検証</t>
+    <rPh sb="10" eb="12">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>要改修事項</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定値取込処理のnative SQL化</t>
+    <rPh sb="0" eb="3">
+      <t>カクテイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開始予定</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト待ち</t>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　速報値当日</t>
+    <rPh sb="1" eb="4">
+      <t>ソクホウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　速報値過去</t>
+    <rPh sb="1" eb="4">
+      <t>ソクホウチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　確定値</t>
+    <rPh sb="1" eb="4">
+      <t>カクテイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検証中</t>
+    <rPh sb="0" eb="3">
+      <t>ケンショウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>速報値当日・速報値過去・確定値のファイル更新対応</t>
+    <rPh sb="0" eb="3">
+      <t>ソクホウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ソクホウチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カクテイチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ポジションデータ連携機能</t>
+    <rPh sb="9" eb="11">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対応済み</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インバランスK・L対応</t>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -640,7 +1459,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,8 +1509,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,8 +1543,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -936,13 +1793,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,6 +1882,45 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1331,8 +2242,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2213,10 +3124,1970 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F11DEC8-02EF-4272-8474-C718C9E81FDF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" customWidth="1"/>
+    <col min="3" max="5" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="45.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="28">
+        <v>43514</v>
+      </c>
+      <c r="D3" s="28">
+        <v>43514</v>
+      </c>
+      <c r="E3" s="28">
+        <v>43524</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="28">
+        <v>43509</v>
+      </c>
+      <c r="D4" s="28">
+        <v>43509</v>
+      </c>
+      <c r="E4" s="28">
+        <v>43517</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="28">
+        <v>43497</v>
+      </c>
+      <c r="D5" s="28">
+        <v>43497</v>
+      </c>
+      <c r="E5" s="28">
+        <v>43524</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="28">
+        <v>43497</v>
+      </c>
+      <c r="D6" s="28">
+        <v>43497</v>
+      </c>
+      <c r="E6" s="28">
+        <v>43524</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="28">
+        <v>43497</v>
+      </c>
+      <c r="D7" s="28">
+        <v>43497</v>
+      </c>
+      <c r="E7" s="28">
+        <v>43524</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="28">
+        <v>43497</v>
+      </c>
+      <c r="D8" s="28">
+        <v>43497</v>
+      </c>
+      <c r="E8" s="28">
+        <v>43524</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="28">
+        <v>43497</v>
+      </c>
+      <c r="D9" s="28">
+        <v>43497</v>
+      </c>
+      <c r="E9" s="28">
+        <v>43524</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="25">
+        <v>43525</v>
+      </c>
+      <c r="D10" s="25">
+        <v>43525</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="25">
+        <v>43497</v>
+      </c>
+      <c r="D11" s="25">
+        <v>43497</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="30">
+        <v>43577</v>
+      </c>
+      <c r="D12" s="30">
+        <v>43577</v>
+      </c>
+      <c r="E12" s="30">
+        <v>43578</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="25">
+        <v>43511</v>
+      </c>
+      <c r="D13" s="25">
+        <v>43511</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="25">
+        <v>43511</v>
+      </c>
+      <c r="D14" s="25">
+        <v>43511</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="25">
+        <v>43570</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="25">
+        <v>43570</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="30">
+        <v>43570</v>
+      </c>
+      <c r="D17" s="30">
+        <v>43565</v>
+      </c>
+      <c r="E17" s="30">
+        <v>43570</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="25">
+        <v>43570</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="25">
+        <v>43570</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="30">
+        <v>43570</v>
+      </c>
+      <c r="D20" s="30">
+        <v>43565</v>
+      </c>
+      <c r="E20" s="30">
+        <v>43570</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="25">
+        <v>43570</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="25">
+        <v>43570</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="25">
+        <v>43523</v>
+      </c>
+      <c r="D23" s="25">
+        <v>43523</v>
+      </c>
+      <c r="E23" s="25">
+        <v>43539</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="25">
+        <v>43523</v>
+      </c>
+      <c r="D24" s="25">
+        <v>43523</v>
+      </c>
+      <c r="E24" s="25">
+        <v>43539</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D25" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E25" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="33">
+        <v>43549</v>
+      </c>
+      <c r="D26" s="33">
+        <v>43549</v>
+      </c>
+      <c r="E26" s="33">
+        <v>43549</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" s="33">
+        <v>43559</v>
+      </c>
+      <c r="D27" s="33">
+        <v>43559</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D28" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E28" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D29" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E29" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D30" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E30" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D31" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E31" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D32" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E32" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D33" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E33" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D34" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E34" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D35" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E35" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D36" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E36" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D37" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E37" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D38" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E38" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D39" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E39" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D40" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E40" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D41" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E41" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D42" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E42" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D43" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E43" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D44" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E44" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D45" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E45" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D46" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E46" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D47" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E47" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D48" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E48" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D49" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E49" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="25">
+        <v>43523</v>
+      </c>
+      <c r="D50" s="25">
+        <v>43523</v>
+      </c>
+      <c r="E50" s="25">
+        <v>43539</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="25">
+        <v>43523</v>
+      </c>
+      <c r="D51" s="25">
+        <v>43523</v>
+      </c>
+      <c r="E51" s="25">
+        <v>43539</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D52" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E52" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" s="27"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D53" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E53" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D54" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E54" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="27"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D55" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E55" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D56" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E56" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D57" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E57" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D58" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E58" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D59" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E59" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D60" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E60" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D61" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E61" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D62" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E62" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D63" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E63" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D64" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E64" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="27"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D65" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E65" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D66" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E66" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="27"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D67" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E67" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D68" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E68" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D69" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E69" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H69" s="27"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D70" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E70" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="27"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D71" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E71" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" s="27"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D72" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E72" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" s="27"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="28">
+        <v>43523</v>
+      </c>
+      <c r="D73" s="28">
+        <v>43523</v>
+      </c>
+      <c r="E73" s="28">
+        <v>43539</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" s="27"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="28">
+        <v>43511</v>
+      </c>
+      <c r="D74" s="28">
+        <v>43511</v>
+      </c>
+      <c r="E74" s="28">
+        <v>43516</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" s="27"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" s="28">
+        <v>43516</v>
+      </c>
+      <c r="D75" s="28">
+        <v>43516</v>
+      </c>
+      <c r="E75" s="28">
+        <v>43521</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" s="27"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" s="24"/>
+      <c r="B76" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="25">
+        <v>43497</v>
+      </c>
+      <c r="D76" s="25">
+        <v>43497</v>
+      </c>
+      <c r="E76" s="25"/>
+      <c r="F76" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" s="24"/>
+      <c r="B77" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="25">
+        <v>43570</v>
+      </c>
+      <c r="D77" s="25">
+        <v>43570</v>
+      </c>
+      <c r="E77" s="25"/>
+      <c r="F77" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" s="24"/>
+      <c r="B78" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="25">
+        <v>43556</v>
+      </c>
+      <c r="D78" s="25">
+        <v>43556</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" s="24"/>
+      <c r="B79" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="25">
+        <v>43556</v>
+      </c>
+      <c r="D79" s="25">
+        <v>43556</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" s="24"/>
+      <c r="B80" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="25">
+        <v>43556</v>
+      </c>
+      <c r="D80" s="25">
+        <v>43556</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B81" s="34"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="34"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" s="34"/>
+      <c r="B82" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" s="35">
+        <v>43539</v>
+      </c>
+      <c r="D82" s="35">
+        <v>43539</v>
+      </c>
+      <c r="E82" s="35">
+        <v>43555</v>
+      </c>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="34"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" s="34"/>
+      <c r="B83" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" s="35">
+        <v>43556</v>
+      </c>
+      <c r="D83" s="35">
+        <v>43556</v>
+      </c>
+      <c r="E83" s="34"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="34"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" s="34"/>
+      <c r="B84" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="34"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" s="34"/>
+      <c r="B85" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="34"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A86" s="34"/>
+      <c r="B86" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="34"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87" s="34"/>
+      <c r="B87" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="34"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" s="34"/>
+      <c r="B88" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="34"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" s="34"/>
+      <c r="B89" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="34"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" s="34"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" s="34"/>
+      <c r="B91" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" s="35">
+        <v>43563</v>
+      </c>
+      <c r="D91" s="35">
+        <v>43563</v>
+      </c>
+      <c r="E91" s="35">
+        <v>43564</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A92" s="29"/>
+      <c r="B92" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A93" s="29"/>
+      <c r="B93" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="30">
+        <v>43572</v>
+      </c>
+      <c r="D93" s="30">
+        <v>43572</v>
+      </c>
+      <c r="E93" s="30">
+        <v>43581</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" s="29"/>
+      <c r="B94" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="30">
+        <v>43572</v>
+      </c>
+      <c r="D94" s="30">
+        <v>43573</v>
+      </c>
+      <c r="E94" s="30">
+        <v>43581</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" s="29"/>
+      <c r="B95" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" s="30">
+        <v>43572</v>
+      </c>
+      <c r="D95" s="30">
+        <v>43574</v>
+      </c>
+      <c r="E95" s="30"/>
+      <c r="F95" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" s="29"/>
+      <c r="B96" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" s="29"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;D &amp;T</oddHeader>
+  </headerFooter>
+</worksheet>
 </file>